--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H2">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I2">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J2">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N2">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O2">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P2">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q2">
-        <v>10.80780905066167</v>
+        <v>12.51693753085267</v>
       </c>
       <c r="R2">
-        <v>10.80780905066167</v>
+        <v>112.652437777674</v>
       </c>
       <c r="S2">
-        <v>0.0003907343319972863</v>
+        <v>0.0003929642279570827</v>
       </c>
       <c r="T2">
-        <v>0.0003907343319972863</v>
+        <v>0.0003929642279570827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H3">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I3">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J3">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N3">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O3">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P3">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q3">
-        <v>1680.190088291637</v>
+        <v>1839.996248199614</v>
       </c>
       <c r="R3">
-        <v>1680.190088291637</v>
+        <v>16559.96623379652</v>
       </c>
       <c r="S3">
-        <v>0.06074385184820615</v>
+        <v>0.05776594341351122</v>
       </c>
       <c r="T3">
-        <v>0.06074385184820615</v>
+        <v>0.05776594341351122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H4">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I4">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J4">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N4">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O4">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P4">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q4">
-        <v>761.8830261783348</v>
+        <v>1001.760050460122</v>
       </c>
       <c r="R4">
-        <v>761.8830261783348</v>
+        <v>9015.840454141095</v>
       </c>
       <c r="S4">
-        <v>0.02754432965075722</v>
+        <v>0.03144985455563695</v>
       </c>
       <c r="T4">
-        <v>0.02754432965075722</v>
+        <v>0.03144985455563696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H5">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I5">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J5">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N5">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O5">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P5">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q5">
-        <v>1641.172430502877</v>
+        <v>1791.27606058946</v>
       </c>
       <c r="R5">
-        <v>1641.172430502877</v>
+        <v>16121.48454530515</v>
       </c>
       <c r="S5">
-        <v>0.05933324786910858</v>
+        <v>0.05623639268571079</v>
       </c>
       <c r="T5">
-        <v>0.05933324786910858</v>
+        <v>0.05623639268571081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H6">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I6">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J6">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N6">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O6">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P6">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q6">
-        <v>26.11885526699415</v>
+        <v>33.848590312541</v>
       </c>
       <c r="R6">
-        <v>26.11885526699415</v>
+        <v>304.637312812869</v>
       </c>
       <c r="S6">
-        <v>0.0009442740353242974</v>
+        <v>0.00106266290191329</v>
       </c>
       <c r="T6">
-        <v>0.0009442740353242974</v>
+        <v>0.00106266290191329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.9390086944546</v>
+        <v>17.303581</v>
       </c>
       <c r="H7">
-        <v>15.9390086944546</v>
+        <v>51.910743</v>
       </c>
       <c r="I7">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="J7">
-        <v>0.1661495722444273</v>
+        <v>0.1631660316305853</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N7">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O7">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P7">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q7">
-        <v>475.5663875404442</v>
+        <v>517.8665959743503</v>
       </c>
       <c r="R7">
-        <v>475.5663875404442</v>
+        <v>4660.799363769153</v>
       </c>
       <c r="S7">
-        <v>0.0171931345090337</v>
+        <v>0.01625821384585597</v>
       </c>
       <c r="T7">
-        <v>0.0171931345090337</v>
+        <v>0.01625821384585597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H8">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I8">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J8">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N8">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O8">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P8">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q8">
-        <v>25.30413908480953</v>
+        <v>27.662889107476</v>
       </c>
       <c r="R8">
-        <v>25.30413908480953</v>
+        <v>248.966001967284</v>
       </c>
       <c r="S8">
-        <v>0.0009148196304841417</v>
+        <v>0.0008684652962745263</v>
       </c>
       <c r="T8">
-        <v>0.0009148196304841417</v>
+        <v>0.0008684652962745265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H9">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I9">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J9">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N9">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O9">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P9">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q9">
-        <v>3933.800410773088</v>
+        <v>4066.458911906902</v>
       </c>
       <c r="R9">
-        <v>3933.800410773088</v>
+        <v>36598.13020716212</v>
       </c>
       <c r="S9">
-        <v>0.1422185448048761</v>
+        <v>0.127664844767172</v>
       </c>
       <c r="T9">
-        <v>0.1422185448048761</v>
+        <v>0.127664844767172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H10">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I10">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J10">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N10">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O10">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P10">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q10">
-        <v>1783.783741034163</v>
+        <v>2213.92629945403</v>
       </c>
       <c r="R10">
-        <v>1783.783741034163</v>
+        <v>19925.33669508627</v>
       </c>
       <c r="S10">
-        <v>0.06448906945093863</v>
+        <v>0.06950532723155399</v>
       </c>
       <c r="T10">
-        <v>0.06448906945093863</v>
+        <v>0.069505327231554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H11">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I11">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J11">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N11">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O11">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P11">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q11">
-        <v>3842.449033743546</v>
+        <v>3958.785517849204</v>
       </c>
       <c r="R11">
-        <v>3842.449033743546</v>
+        <v>35629.06966064284</v>
       </c>
       <c r="S11">
-        <v>0.1389159217558054</v>
+        <v>0.124284481793952</v>
       </c>
       <c r="T11">
-        <v>0.1389159217558054</v>
+        <v>0.124284481793952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H12">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I12">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J12">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N12">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O12">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P12">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q12">
-        <v>61.15163057692693</v>
+        <v>74.80662086490599</v>
       </c>
       <c r="R12">
-        <v>61.15163057692693</v>
+        <v>673.2595877841541</v>
       </c>
       <c r="S12">
-        <v>0.002210812701447342</v>
+        <v>0.002348523825560187</v>
       </c>
       <c r="T12">
-        <v>0.002210812701447342</v>
+        <v>0.002348523825560187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.3177293369904</v>
+        <v>38.241546</v>
       </c>
       <c r="H13">
-        <v>37.3177293369904</v>
+        <v>114.724638</v>
       </c>
       <c r="I13">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="J13">
-        <v>0.3890031610705783</v>
+        <v>0.3606028893232265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N13">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O13">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P13">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q13">
-        <v>1113.435475957738</v>
+        <v>1144.504091483522</v>
       </c>
       <c r="R13">
-        <v>1113.435475957738</v>
+        <v>10300.5368233517</v>
       </c>
       <c r="S13">
-        <v>0.04025399272702659</v>
+        <v>0.03593124640871379</v>
       </c>
       <c r="T13">
-        <v>0.04025399272702659</v>
+        <v>0.03593124640871379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H14">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I14">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J14">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N14">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O14">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P14">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q14">
-        <v>9.563327738450665</v>
+        <v>13.80775048204134</v>
       </c>
       <c r="R14">
-        <v>9.563327738450665</v>
+        <v>124.269754338372</v>
       </c>
       <c r="S14">
-        <v>0.0003457426438641484</v>
+        <v>0.0004334887822700341</v>
       </c>
       <c r="T14">
-        <v>0.0003457426438641484</v>
+        <v>0.0004334887822700342</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H15">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I15">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J15">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N15">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O15">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P15">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q15">
-        <v>1486.722091582989</v>
+        <v>2029.7464152401</v>
       </c>
       <c r="R15">
-        <v>1486.722091582989</v>
+        <v>18267.7177371609</v>
       </c>
       <c r="S15">
-        <v>0.05374941031963578</v>
+        <v>0.0637230737189073</v>
       </c>
       <c r="T15">
-        <v>0.05374941031963578</v>
+        <v>0.0637230737189073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H16">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I16">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J16">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N16">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O16">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P16">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q16">
-        <v>674.1548674252283</v>
+        <v>1105.066857251323</v>
       </c>
       <c r="R16">
-        <v>674.1548674252283</v>
+        <v>9945.60171526191</v>
       </c>
       <c r="S16">
-        <v>0.02437269668175613</v>
+        <v>0.03469313027490554</v>
       </c>
       <c r="T16">
-        <v>0.02437269668175613</v>
+        <v>0.03469313027490555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H17">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I17">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J17">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N17">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O17">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P17">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q17">
-        <v>1452.197180264558</v>
+        <v>1976.001943615065</v>
       </c>
       <c r="R17">
-        <v>1452.197180264558</v>
+        <v>17784.01749253559</v>
       </c>
       <c r="S17">
-        <v>0.05250123244213648</v>
+        <v>0.06203578761181955</v>
       </c>
       <c r="T17">
-        <v>0.05250123244213648</v>
+        <v>0.06203578761181957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H18">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I18">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J18">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N18">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O18">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P18">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q18">
-        <v>23.1113606745422</v>
+        <v>37.339236378898</v>
       </c>
       <c r="R18">
-        <v>23.1113606745422</v>
+        <v>336.053127410082</v>
       </c>
       <c r="S18">
-        <v>0.0008355441914624443</v>
+        <v>0.001172250333595867</v>
       </c>
       <c r="T18">
-        <v>0.0008355441914624443</v>
+        <v>0.001172250333595868</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.1036877369472</v>
+        <v>19.088018</v>
       </c>
       <c r="H19">
-        <v>14.1036877369472</v>
+        <v>57.264054</v>
       </c>
       <c r="I19">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="J19">
-        <v>0.1470180316407021</v>
+        <v>0.1799925777648674</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N19">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O19">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P19">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q19">
-        <v>420.8065856938758</v>
+        <v>571.2717445918928</v>
       </c>
       <c r="R19">
-        <v>420.8065856938758</v>
+        <v>5141.445701327035</v>
       </c>
       <c r="S19">
-        <v>0.01521340536184705</v>
+        <v>0.01793484704336912</v>
       </c>
       <c r="T19">
-        <v>0.01521340536184705</v>
+        <v>0.01793484704336912</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H20">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I20">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J20">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N20">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O20">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P20">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q20">
-        <v>13.47819479800259</v>
+        <v>15.78772081388756</v>
       </c>
       <c r="R20">
-        <v>13.47819479800259</v>
+        <v>142.089487324988</v>
       </c>
       <c r="S20">
-        <v>0.0004872766919031035</v>
+        <v>0.0004956491558369763</v>
       </c>
       <c r="T20">
-        <v>0.0004872766919031035</v>
+        <v>0.0004956491558369763</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H21">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I21">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J21">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N21">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O21">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P21">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q21">
-        <v>2095.330256254059</v>
+        <v>2320.803071324204</v>
       </c>
       <c r="R21">
-        <v>2095.330256254059</v>
+        <v>20887.22764191783</v>
       </c>
       <c r="S21">
-        <v>0.07575239941355265</v>
+        <v>0.07286068057105789</v>
       </c>
       <c r="T21">
-        <v>0.07575239941355265</v>
+        <v>0.07286068057105788</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H22">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I22">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J22">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N22">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O22">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P22">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q22">
-        <v>950.1285405754491</v>
+        <v>1263.528555622099</v>
       </c>
       <c r="R22">
-        <v>950.1285405754491</v>
+        <v>11371.75700059889</v>
       </c>
       <c r="S22">
-        <v>0.03434996296410105</v>
+        <v>0.03966797166942021</v>
       </c>
       <c r="T22">
-        <v>0.03434996296410105</v>
+        <v>0.03966797166942021</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H23">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I23">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J23">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N23">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O23">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P23">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q23">
-        <v>2046.672143423455</v>
+        <v>2259.351880240651</v>
       </c>
       <c r="R23">
-        <v>2046.672143423455</v>
+        <v>20334.16692216586</v>
       </c>
       <c r="S23">
-        <v>0.07399326440996461</v>
+        <v>0.07093144510098627</v>
       </c>
       <c r="T23">
-        <v>0.07399326440996461</v>
+        <v>0.07093144510098628</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H24">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I24">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J24">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N24">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O24">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P24">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q24">
-        <v>32.57228338687488</v>
+        <v>42.69351768200868</v>
       </c>
       <c r="R24">
-        <v>32.57228338687488</v>
+        <v>384.2416591380781</v>
       </c>
       <c r="S24">
-        <v>0.001177584590099479</v>
+        <v>0.00134034584524604</v>
       </c>
       <c r="T24">
-        <v>0.001177584590099479</v>
+        <v>0.00134034584524604</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.877207587949</v>
+        <v>21.82515533333334</v>
       </c>
       <c r="H25">
-        <v>19.877207587949</v>
+        <v>65.47546600000001</v>
       </c>
       <c r="I25">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="J25">
-        <v>0.2072016899834195</v>
+        <v>0.2058027171058468</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N25">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O25">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P25">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q25">
-        <v>593.0689911902248</v>
+        <v>653.1895853860987</v>
       </c>
       <c r="R25">
-        <v>593.0689911902248</v>
+        <v>5878.706268474888</v>
       </c>
       <c r="S25">
-        <v>0.0214412019137986</v>
+        <v>0.02050662476329942</v>
       </c>
       <c r="T25">
-        <v>0.0214412019137986</v>
+        <v>0.02050662476329942</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H26">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I26">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J26">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N26">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O26">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P26">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q26">
-        <v>4.158871459431746</v>
+        <v>4.652919622148</v>
       </c>
       <c r="R26">
-        <v>4.158871459431746</v>
+        <v>41.876276599332</v>
       </c>
       <c r="S26">
-        <v>0.0001503555303342592</v>
+        <v>0.0001460765432883962</v>
       </c>
       <c r="T26">
-        <v>0.0001503555303342592</v>
+        <v>0.0001460765432883962</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H27">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I27">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J27">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N27">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O27">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P27">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q27">
-        <v>646.5412713956484</v>
+        <v>683.9815751116461</v>
       </c>
       <c r="R27">
-        <v>646.5412713956484</v>
+        <v>6155.834176004814</v>
       </c>
       <c r="S27">
-        <v>0.02337438333738776</v>
+        <v>0.021473326917076</v>
       </c>
       <c r="T27">
-        <v>0.02337438333738776</v>
+        <v>0.021473326917076</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H28">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I28">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J28">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N28">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O28">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P28">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q28">
-        <v>293.1744591476271</v>
+        <v>372.38413821119</v>
       </c>
       <c r="R28">
-        <v>293.1744591476271</v>
+        <v>3351.45724390071</v>
       </c>
       <c r="S28">
-        <v>0.01059912568002861</v>
+        <v>0.01169085049876857</v>
       </c>
       <c r="T28">
-        <v>0.01059912568002861</v>
+        <v>0.01169085049876857</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H29">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I29">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J29">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N29">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O29">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P29">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q29">
-        <v>631.5271808773101</v>
+        <v>665.8708258674919</v>
       </c>
       <c r="R29">
-        <v>631.5271808773101</v>
+        <v>5992.837432807428</v>
       </c>
       <c r="S29">
-        <v>0.02283157946273284</v>
+        <v>0.0209047472164175</v>
       </c>
       <c r="T29">
-        <v>0.02283157946273284</v>
+        <v>0.02090474721641751</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H30">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I30">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J30">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N30">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O30">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P30">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q30">
-        <v>10.05059963714665</v>
+        <v>12.582532241538</v>
       </c>
       <c r="R30">
-        <v>10.05059963714665</v>
+        <v>113.242790173842</v>
       </c>
       <c r="S30">
-        <v>0.0003633589672970989</v>
+        <v>0.0003950235475613386</v>
       </c>
       <c r="T30">
-        <v>0.0003633589672970989</v>
+        <v>0.0003950235475613386</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.13336968115137</v>
+        <v>6.432258</v>
       </c>
       <c r="H31">
-        <v>6.13336968115137</v>
+        <v>19.296774</v>
       </c>
       <c r="I31">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="J31">
-        <v>0.06393476335167465</v>
+        <v>0.06065368852170459</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N31">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O31">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P31">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q31">
-        <v>182.9991135979521</v>
+        <v>192.506484922906</v>
       </c>
       <c r="R31">
-        <v>182.9991135979521</v>
+        <v>1732.558364306154</v>
       </c>
       <c r="S31">
-        <v>0.006615960373894069</v>
+        <v>0.00604366379859278</v>
       </c>
       <c r="T31">
-        <v>0.006615960373894069</v>
+        <v>0.00604366379859278</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H32">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I32">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J32">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.678072849939649</v>
+        <v>0.7233726666666667</v>
       </c>
       <c r="N32">
-        <v>0.678072849939649</v>
+        <v>2.170118</v>
       </c>
       <c r="O32">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="P32">
-        <v>0.002351702304851354</v>
+        <v>0.002408370320893567</v>
       </c>
       <c r="Q32">
-        <v>1.736330005831139</v>
+        <v>2.284670572120666</v>
       </c>
       <c r="R32">
-        <v>1.736330005831139</v>
+        <v>20.562035149086</v>
       </c>
       <c r="S32">
-        <v>6.277347626841528E-05</v>
+        <v>7.17263152665511E-05</v>
       </c>
       <c r="T32">
-        <v>6.277347626841528E-05</v>
+        <v>7.172631526655112E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H33">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I33">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J33">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>105.413713016933</v>
+        <v>106.3361536666667</v>
       </c>
       <c r="N33">
-        <v>105.413713016933</v>
+        <v>319.008461</v>
       </c>
       <c r="O33">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="P33">
-        <v>0.365597401351381</v>
+        <v>0.3540316745846692</v>
       </c>
       <c r="Q33">
-        <v>269.9311629328087</v>
+        <v>335.8477479584996</v>
       </c>
       <c r="R33">
-        <v>269.9311629328087</v>
+        <v>3022.629731626497</v>
       </c>
       <c r="S33">
-        <v>0.009758811627722503</v>
+        <v>0.01054380519694472</v>
       </c>
       <c r="T33">
-        <v>0.009758811627722503</v>
+        <v>0.01054380519694472</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H34">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I34">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J34">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.7999002813396</v>
+        <v>57.89322166666667</v>
       </c>
       <c r="N34">
-        <v>47.7999002813396</v>
+        <v>173.679665</v>
       </c>
       <c r="O34">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="P34">
-        <v>0.1657803223846763</v>
+        <v>0.1927475605145606</v>
       </c>
       <c r="Q34">
-        <v>122.4004192788625</v>
+        <v>182.8475776899116</v>
       </c>
       <c r="R34">
-        <v>122.4004192788625</v>
+        <v>1645.628199209205</v>
       </c>
       <c r="S34">
-        <v>0.004425137957094654</v>
+        <v>0.005740426284275318</v>
       </c>
       <c r="T34">
-        <v>0.004425137957094654</v>
+        <v>0.005740426284275318</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H35">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I35">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J35">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>102.965777983035</v>
+        <v>103.5205406666667</v>
       </c>
       <c r="N35">
-        <v>102.965777983035</v>
+        <v>310.561622</v>
       </c>
       <c r="O35">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369395</v>
       </c>
       <c r="P35">
-        <v>0.3571074367968988</v>
+        <v>0.3446574763369397</v>
       </c>
       <c r="Q35">
-        <v>263.662775912062</v>
+        <v>326.9550312994326</v>
       </c>
       <c r="R35">
-        <v>263.662775912062</v>
+        <v>2942.595281694894</v>
       </c>
       <c r="S35">
-        <v>0.009532190857150881</v>
+        <v>0.01026462192805344</v>
       </c>
       <c r="T35">
-        <v>0.009532190857150881</v>
+        <v>0.01026462192805344</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H36">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I36">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J36">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.63867501220959</v>
+        <v>1.956161</v>
       </c>
       <c r="N36">
-        <v>1.63867501220959</v>
+        <v>5.868483</v>
       </c>
       <c r="O36">
-        <v>0.005683276956832302</v>
+        <v>0.006512770405050989</v>
       </c>
       <c r="P36">
-        <v>0.005683276956832302</v>
+        <v>0.00651277040505099</v>
       </c>
       <c r="Q36">
-        <v>4.196128179676358</v>
+        <v>6.178258699798999</v>
       </c>
       <c r="R36">
-        <v>4.196128179676358</v>
+        <v>55.604328298191</v>
       </c>
       <c r="S36">
-        <v>0.0001517024712016404</v>
+        <v>0.0001939639511742659</v>
       </c>
       <c r="T36">
-        <v>0.0001517024712016404</v>
+        <v>0.000193963951174266</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.56068356959828</v>
+        <v>3.158358999999999</v>
       </c>
       <c r="H37">
-        <v>2.56068356959828</v>
+        <v>9.475076999999999</v>
       </c>
       <c r="I37">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="J37">
-        <v>0.02669278170919811</v>
+        <v>0.02978209565376923</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.8366351795705</v>
+        <v>29.92829033333334</v>
       </c>
       <c r="N37">
-        <v>29.8366351795705</v>
+        <v>89.78487100000001</v>
       </c>
       <c r="O37">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788602</v>
       </c>
       <c r="P37">
-        <v>0.10347986020536</v>
+        <v>0.09964214783788604</v>
       </c>
       <c r="Q37">
-        <v>76.4021814764242</v>
+        <v>94.52428512889632</v>
       </c>
       <c r="R37">
-        <v>76.4021814764242</v>
+        <v>850.718566160067</v>
       </c>
       <c r="S37">
-        <v>0.002762165319760012</v>
+        <v>0.002967551978054937</v>
       </c>
       <c r="T37">
-        <v>0.002762165319760012</v>
+        <v>0.002967551978054937</v>
       </c>
     </row>
   </sheetData>
